--- a/verifyData.xlsx
+++ b/verifyData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Case ID</t>
   </si>
@@ -44,10 +44,10 @@
     <t>Merchant Name</t>
   </si>
   <si>
-    <t>501469714</t>
+    <t>505970146</t>
   </si>
   <si>
-    <t>2023-05-27 13:32:25</t>
+    <t>2023-06-12 01:00:29</t>
   </si>
   <si>
     <t>CLOSED</t>
@@ -59,7 +59,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>169.00</t>
+    <t>129.00</t>
   </si>
   <si>
     <t>Retail Exclusive Dea</t>
@@ -69,30 +69,6 @@
   </si>
   <si>
     <t>Retail Exclusive Dea - 411572 - 868800000033951</t>
-  </si>
-  <si>
-    <t>502481206</t>
-  </si>
-  <si>
-    <t>2023-05-31 19:13:23</t>
-  </si>
-  <si>
-    <t>9.95</t>
-  </si>
-  <si>
-    <t>LILY'S SKIN SERUM</t>
-  </si>
-  <si>
-    <t>LILY'S SKIN SERUM  - 442114 - 690550110148379</t>
-  </si>
-  <si>
-    <t>502821518</t>
-  </si>
-  <si>
-    <t>2023-06-01 16:59:18</t>
-  </si>
-  <si>
-    <t>129.00</t>
   </si>
 </sst>
 </file>
@@ -144,7 +120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -214,70 +190,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/verifyData.xlsx
+++ b/verifyData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>Case ID</t>
   </si>
@@ -44,10 +44,10 @@
     <t>Merchant Name</t>
   </si>
   <si>
-    <t>505970146</t>
-  </si>
-  <si>
-    <t>2023-06-12 01:00:29</t>
+    <t>507137726</t>
+  </si>
+  <si>
+    <t>2023-06-15 03:07:33</t>
   </si>
   <si>
     <t>CLOSED</t>
@@ -59,16 +59,106 @@
     <t>USD</t>
   </si>
   <si>
+    <t>149.00</t>
+  </si>
+  <si>
+    <t>Retail Exclusive Dea</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Retail Exclusive Dea - 411572 - 868800000033951</t>
+  </si>
+  <si>
+    <t>507149018</t>
+  </si>
+  <si>
+    <t>2023-06-15 04:21:16</t>
+  </si>
+  <si>
+    <t>9.99</t>
+  </si>
+  <si>
+    <t>LILY'S SKIN SERUM</t>
+  </si>
+  <si>
+    <t>LILY'S SKIN SERUM  - 442114 - 690550110148379</t>
+  </si>
+  <si>
+    <t>507149054</t>
+  </si>
+  <si>
+    <t>2023-06-15 04:21:29</t>
+  </si>
+  <si>
+    <t>9.95</t>
+  </si>
+  <si>
+    <t>507149410</t>
+  </si>
+  <si>
+    <t>2023-06-15 04:24:31</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>507191274</t>
+  </si>
+  <si>
+    <t>2023-06-15 09:12:45</t>
+  </si>
+  <si>
     <t>129.00</t>
   </si>
   <si>
-    <t>Retail Exclusive Dea</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Retail Exclusive Dea - 411572 - 868800000033951</t>
+    <t>MS SERUM &amp; EYECREAM</t>
+  </si>
+  <si>
+    <t>MS SERUM &amp; EYECREAM - 442114 - 690550110142380</t>
+  </si>
+  <si>
+    <t>507205086</t>
+  </si>
+  <si>
+    <t>2023-06-15 11:11:18</t>
+  </si>
+  <si>
+    <t>SKIN RETAIL THERAPY</t>
+  </si>
+  <si>
+    <t>SKIN RETAIL THERAPY - 402820 - 931799980050906</t>
+  </si>
+  <si>
+    <t>507205498</t>
+  </si>
+  <si>
+    <t>2023-06-15 11:13:19</t>
+  </si>
+  <si>
+    <t>507212722</t>
+  </si>
+  <si>
+    <t>2023-06-15 11:58:16</t>
+  </si>
+  <si>
+    <t>TEETH RETAIL STORE</t>
+  </si>
+  <si>
+    <t>TEETH RETAIL STORE - 424666 - 55630000183848</t>
+  </si>
+  <si>
+    <t>507243422</t>
+  </si>
+  <si>
+    <t>2023-06-15 14:14:28</t>
+  </si>
+  <si>
+    <t>507320954</t>
+  </si>
+  <si>
+    <t>2023-06-15 16:42:28</t>
   </si>
 </sst>
 </file>
@@ -120,7 +210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -190,6 +280,294 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
